--- a/KẾ TOÁN - THÁI HẰNG/NANOMILK 1_2021.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/NANOMILK 1_2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="3"/>
+    <workbookView xWindow="9930" yWindow="375" windowWidth="9345" windowHeight="8010" tabRatio="815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="THU CHI" sheetId="1" r:id="rId1"/>
@@ -319,9 +319,6 @@
     <t>Lương còn nợ nhận viên</t>
   </si>
   <si>
-    <t xml:space="preserve"> Số:………./PKD. MST: 0108806878</t>
-  </si>
-  <si>
     <t>Đi làm cả ngày</t>
   </si>
   <si>
@@ -443,6 +440,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Số:12021/BC. MST: 0108806878</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Số:012021/BCC. MST: 0108806878</t>
   </si>
 </sst>
 </file>
@@ -450,13 +450,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="d/mm/yyyy;@"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="46" x14ac:knownFonts="1">
     <font>
@@ -983,9 +983,9 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
@@ -1029,7 +1029,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1043,14 +1043,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1062,15 +1062,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1102,10 +1102,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1117,10 +1117,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1129,16 +1129,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1153,7 +1153,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1163,12 +1163,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1177,7 +1177,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1192,50 +1192,50 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1243,10 +1243,10 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1255,25 +1255,25 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1281,24 +1281,24 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1307,13 +1307,13 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="29" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="29" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="30" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="30" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1325,11 +1325,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1357,38 +1357,38 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1398,7 +1398,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1409,7 +1409,7 @@
     <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -1432,12 +1432,12 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1446,36 +1446,36 @@
     <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1548,7 +1548,7 @@
     <xf numFmtId="0" fontId="41" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="41" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="41" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1557,19 +1557,19 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="41" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="41" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="41" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="41" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="39" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="39" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="41" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="41" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="41" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="41" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1581,7 +1581,7 @@
     <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1617,7 +1617,7 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1638,7 +1638,7 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1653,7 +1653,7 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1662,13 +1662,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1677,46 +1677,46 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="22" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="22" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="16" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1735,32 +1735,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="24" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="24" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1769,13 +1769,13 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1784,13 +1784,13 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1811,7 +1811,7 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1829,30 +1829,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1879,25 +1879,112 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="28" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1909,132 +1996,21 @@
     <xf numFmtId="9" fontId="28" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="28" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="27" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2053,7 +2029,7 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2062,13 +2038,37 @@
     <xf numFmtId="9" fontId="23" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2077,40 +2077,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2154,6 +2127,33 @@
     </xf>
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="102" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="103"/>
       <c r="C2" s="102"/>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="355" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="355"/>
       <c r="C3" s="355"/>
@@ -3585,7 +3585,7 @@
   <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A80" sqref="A80:F80"/>
     </sheetView>
   </sheetViews>
@@ -3610,13 +3610,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="399" t="s">
+      <c r="A1" s="367" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="399"/>
-      <c r="C1" s="399"/>
-      <c r="D1" s="399"/>
-      <c r="E1" s="399"/>
+      <c r="B1" s="367"/>
+      <c r="C1" s="367"/>
+      <c r="D1" s="367"/>
+      <c r="E1" s="367"/>
       <c r="H1" s="124"/>
       <c r="I1" s="124"/>
       <c r="J1" s="124"/>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="2" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="129" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="129"/>
       <c r="C2" s="129"/>
@@ -3646,145 +3646,145 @@
       <c r="P2" s="128"/>
     </row>
     <row r="3" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="400" t="s">
+      <c r="A3" s="368" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="400"/>
-      <c r="C3" s="400"/>
-      <c r="D3" s="400"/>
-      <c r="E3" s="400"/>
-      <c r="F3" s="400"/>
-      <c r="G3" s="400"/>
-      <c r="H3" s="400"/>
-      <c r="I3" s="400"/>
-      <c r="J3" s="400"/>
-      <c r="K3" s="400"/>
-      <c r="L3" s="400"/>
-      <c r="M3" s="400"/>
-      <c r="N3" s="400"/>
-      <c r="O3" s="400"/>
-      <c r="P3" s="400"/>
+      <c r="B3" s="368"/>
+      <c r="C3" s="368"/>
+      <c r="D3" s="368"/>
+      <c r="E3" s="368"/>
+      <c r="F3" s="368"/>
+      <c r="G3" s="368"/>
+      <c r="H3" s="368"/>
+      <c r="I3" s="368"/>
+      <c r="J3" s="368"/>
+      <c r="K3" s="368"/>
+      <c r="L3" s="368"/>
+      <c r="M3" s="368"/>
+      <c r="N3" s="368"/>
+      <c r="O3" s="368"/>
+      <c r="P3" s="368"/>
     </row>
     <row r="4" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="400" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="400"/>
-      <c r="C4" s="400"/>
-      <c r="D4" s="400"/>
-      <c r="E4" s="400"/>
-      <c r="F4" s="400"/>
-      <c r="G4" s="400"/>
-      <c r="H4" s="400"/>
-      <c r="I4" s="400"/>
-      <c r="J4" s="400"/>
-      <c r="K4" s="400"/>
-      <c r="L4" s="400"/>
-      <c r="M4" s="400"/>
-      <c r="N4" s="400"/>
-      <c r="O4" s="400"/>
-      <c r="P4" s="400"/>
+      <c r="A4" s="368" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="368"/>
+      <c r="C4" s="368"/>
+      <c r="D4" s="368"/>
+      <c r="E4" s="368"/>
+      <c r="F4" s="368"/>
+      <c r="G4" s="368"/>
+      <c r="H4" s="368"/>
+      <c r="I4" s="368"/>
+      <c r="J4" s="368"/>
+      <c r="K4" s="368"/>
+      <c r="L4" s="368"/>
+      <c r="M4" s="368"/>
+      <c r="N4" s="368"/>
+      <c r="O4" s="368"/>
+      <c r="P4" s="368"/>
     </row>
     <row r="5" spans="1:16" s="123" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="393" t="s">
+      <c r="A5" s="378" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="394" t="s">
+      <c r="B5" s="379" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="393" t="s">
+      <c r="C5" s="378" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="393" t="s">
+      <c r="D5" s="378" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="393"/>
-      <c r="F5" s="395" t="s">
+      <c r="E5" s="378"/>
+      <c r="F5" s="370" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="395"/>
-      <c r="H5" s="395"/>
-      <c r="I5" s="395"/>
-      <c r="J5" s="395"/>
-      <c r="K5" s="395"/>
-      <c r="L5" s="395"/>
-      <c r="M5" s="401" t="s">
-        <v>125</v>
-      </c>
-      <c r="N5" s="401"/>
-      <c r="O5" s="401"/>
-      <c r="P5" s="395" t="s">
+      <c r="G5" s="370"/>
+      <c r="H5" s="370"/>
+      <c r="I5" s="370"/>
+      <c r="J5" s="370"/>
+      <c r="K5" s="370"/>
+      <c r="L5" s="370"/>
+      <c r="M5" s="369" t="s">
+        <v>124</v>
+      </c>
+      <c r="N5" s="369"/>
+      <c r="O5" s="369"/>
+      <c r="P5" s="370" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="123" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="393"/>
-      <c r="B6" s="394"/>
-      <c r="C6" s="393"/>
-      <c r="D6" s="393" t="s">
+      <c r="A6" s="378"/>
+      <c r="B6" s="379"/>
+      <c r="C6" s="378"/>
+      <c r="D6" s="378" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="393" t="s">
+      <c r="E6" s="378" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="393" t="s">
+      <c r="F6" s="378" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="393" t="s">
+      <c r="G6" s="378" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="396" t="s">
+      <c r="H6" s="371" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="396" t="s">
+      <c r="I6" s="371" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="397" t="s">
+      <c r="J6" s="380" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="397"/>
-      <c r="L6" s="396" t="s">
+      <c r="K6" s="380"/>
+      <c r="L6" s="371" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="396" t="s">
+      <c r="M6" s="371" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="396" t="s">
+      <c r="N6" s="371" t="s">
         <v>80</v>
       </c>
-      <c r="O6" s="396" t="s">
+      <c r="O6" s="371" t="s">
         <v>82</v>
       </c>
-      <c r="P6" s="395"/>
+      <c r="P6" s="370"/>
     </row>
     <row r="7" spans="1:16" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="393"/>
-      <c r="B7" s="394"/>
-      <c r="C7" s="393"/>
-      <c r="D7" s="393"/>
-      <c r="E7" s="393"/>
-      <c r="F7" s="393"/>
-      <c r="G7" s="393"/>
-      <c r="H7" s="396"/>
-      <c r="I7" s="396"/>
+      <c r="A7" s="378"/>
+      <c r="B7" s="379"/>
+      <c r="C7" s="378"/>
+      <c r="D7" s="378"/>
+      <c r="E7" s="378"/>
+      <c r="F7" s="378"/>
+      <c r="G7" s="378"/>
+      <c r="H7" s="371"/>
+      <c r="I7" s="371"/>
       <c r="J7" s="206" t="s">
         <v>83</v>
       </c>
       <c r="K7" s="196" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="396"/>
-      <c r="M7" s="396"/>
-      <c r="N7" s="396"/>
-      <c r="O7" s="396"/>
-      <c r="P7" s="395"/>
+      <c r="L7" s="371"/>
+      <c r="M7" s="371"/>
+      <c r="N7" s="371"/>
+      <c r="O7" s="371"/>
+      <c r="P7" s="370"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="382"/>
-      <c r="B8" s="379"/>
-      <c r="C8" s="382"/>
-      <c r="D8" s="382"/>
-      <c r="E8" s="382"/>
+      <c r="A8" s="362"/>
+      <c r="B8" s="359"/>
+      <c r="C8" s="362"/>
+      <c r="D8" s="362"/>
+      <c r="E8" s="362"/>
       <c r="F8" s="162"/>
       <c r="G8" s="162"/>
       <c r="H8" s="163"/>
@@ -3798,11 +3798,11 @@
       <c r="P8" s="162"/>
     </row>
     <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="383"/>
-      <c r="B9" s="380"/>
-      <c r="C9" s="383"/>
-      <c r="D9" s="383"/>
-      <c r="E9" s="383"/>
+      <c r="A9" s="363"/>
+      <c r="B9" s="360"/>
+      <c r="C9" s="363"/>
+      <c r="D9" s="363"/>
+      <c r="E9" s="363"/>
       <c r="F9" s="174"/>
       <c r="G9" s="174"/>
       <c r="H9" s="175"/>
@@ -3816,11 +3816,11 @@
       <c r="P9" s="174"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="383"/>
-      <c r="B10" s="380"/>
-      <c r="C10" s="383"/>
-      <c r="D10" s="383"/>
-      <c r="E10" s="383"/>
+      <c r="A10" s="363"/>
+      <c r="B10" s="360"/>
+      <c r="C10" s="363"/>
+      <c r="D10" s="363"/>
+      <c r="E10" s="363"/>
       <c r="F10" s="174"/>
       <c r="G10" s="174"/>
       <c r="H10" s="175"/>
@@ -3834,11 +3834,11 @@
       <c r="P10" s="174"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="383"/>
-      <c r="B11" s="380"/>
-      <c r="C11" s="383"/>
-      <c r="D11" s="383"/>
-      <c r="E11" s="383"/>
+      <c r="A11" s="363"/>
+      <c r="B11" s="360"/>
+      <c r="C11" s="363"/>
+      <c r="D11" s="363"/>
+      <c r="E11" s="363"/>
       <c r="F11" s="174"/>
       <c r="G11" s="174"/>
       <c r="H11" s="175"/>
@@ -3852,11 +3852,11 @@
       <c r="P11" s="174"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="384"/>
-      <c r="B12" s="381"/>
-      <c r="C12" s="384"/>
-      <c r="D12" s="384"/>
-      <c r="E12" s="384"/>
+      <c r="A12" s="364"/>
+      <c r="B12" s="361"/>
+      <c r="C12" s="364"/>
+      <c r="D12" s="364"/>
+      <c r="E12" s="364"/>
       <c r="F12" s="165"/>
       <c r="G12" s="165"/>
       <c r="H12" s="166"/>
@@ -3870,11 +3870,11 @@
       <c r="P12" s="168"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="385"/>
-      <c r="B13" s="387"/>
-      <c r="C13" s="385"/>
-      <c r="D13" s="385"/>
-      <c r="E13" s="385"/>
+      <c r="A13" s="372"/>
+      <c r="B13" s="374"/>
+      <c r="C13" s="372"/>
+      <c r="D13" s="372"/>
+      <c r="E13" s="372"/>
       <c r="F13" s="207"/>
       <c r="G13" s="207"/>
       <c r="H13" s="208"/>
@@ -3888,11 +3888,11 @@
       <c r="P13" s="307"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="360"/>
+      <c r="A14" s="373"/>
       <c r="B14" s="375"/>
-      <c r="C14" s="360"/>
-      <c r="D14" s="360"/>
-      <c r="E14" s="360"/>
+      <c r="C14" s="373"/>
+      <c r="D14" s="373"/>
+      <c r="E14" s="373"/>
       <c r="F14" s="309"/>
       <c r="G14" s="309"/>
       <c r="H14" s="310"/>
@@ -3924,11 +3924,11 @@
       <c r="P15" s="169"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="360"/>
+      <c r="A16" s="373"/>
       <c r="B16" s="375"/>
-      <c r="C16" s="360"/>
-      <c r="D16" s="360"/>
-      <c r="E16" s="360"/>
+      <c r="C16" s="373"/>
+      <c r="D16" s="373"/>
+      <c r="E16" s="373"/>
       <c r="F16" s="207"/>
       <c r="G16" s="207"/>
       <c r="H16" s="208"/>
@@ -3942,11 +3942,11 @@
       <c r="P16" s="207"/>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="360"/>
+      <c r="A17" s="373"/>
       <c r="B17" s="375"/>
-      <c r="C17" s="360"/>
-      <c r="D17" s="360"/>
-      <c r="E17" s="360"/>
+      <c r="C17" s="373"/>
+      <c r="D17" s="373"/>
+      <c r="E17" s="373"/>
       <c r="F17" s="174"/>
       <c r="G17" s="174"/>
       <c r="H17" s="175"/>
@@ -3996,11 +3996,11 @@
       <c r="P19" s="156"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="385"/>
-      <c r="B20" s="387"/>
-      <c r="C20" s="385"/>
-      <c r="D20" s="385"/>
-      <c r="E20" s="385"/>
+      <c r="A20" s="372"/>
+      <c r="B20" s="374"/>
+      <c r="C20" s="372"/>
+      <c r="D20" s="372"/>
+      <c r="E20" s="372"/>
       <c r="F20" s="207"/>
       <c r="G20" s="207"/>
       <c r="H20" s="208"/>
@@ -4014,11 +4014,11 @@
       <c r="P20" s="207"/>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="360"/>
+      <c r="A21" s="373"/>
       <c r="B21" s="375"/>
-      <c r="C21" s="360"/>
-      <c r="D21" s="360"/>
-      <c r="E21" s="360"/>
+      <c r="C21" s="373"/>
+      <c r="D21" s="373"/>
+      <c r="E21" s="373"/>
       <c r="F21" s="170"/>
       <c r="G21" s="170"/>
       <c r="H21" s="171"/>
@@ -4032,11 +4032,11 @@
       <c r="P21" s="170"/>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="360"/>
+      <c r="A22" s="373"/>
       <c r="B22" s="375"/>
-      <c r="C22" s="360"/>
-      <c r="D22" s="360"/>
-      <c r="E22" s="360"/>
+      <c r="C22" s="373"/>
+      <c r="D22" s="373"/>
+      <c r="E22" s="373"/>
       <c r="F22" s="315"/>
       <c r="G22" s="315"/>
       <c r="H22" s="316"/>
@@ -4086,11 +4086,11 @@
       <c r="P24" s="320"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="385"/>
-      <c r="B25" s="387"/>
-      <c r="C25" s="385"/>
-      <c r="D25" s="388"/>
-      <c r="E25" s="385"/>
+      <c r="A25" s="372"/>
+      <c r="B25" s="374"/>
+      <c r="C25" s="372"/>
+      <c r="D25" s="382"/>
+      <c r="E25" s="372"/>
       <c r="F25" s="306"/>
       <c r="G25" s="306"/>
       <c r="H25" s="318"/>
@@ -4101,14 +4101,14 @@
       <c r="M25" s="318"/>
       <c r="N25" s="318"/>
       <c r="O25" s="318"/>
-      <c r="P25" s="385"/>
+      <c r="P25" s="372"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="360"/>
+      <c r="A26" s="373"/>
       <c r="B26" s="375"/>
-      <c r="C26" s="360"/>
-      <c r="D26" s="372"/>
-      <c r="E26" s="360"/>
+      <c r="C26" s="373"/>
+      <c r="D26" s="383"/>
+      <c r="E26" s="373"/>
       <c r="F26" s="170"/>
       <c r="G26" s="170"/>
       <c r="H26" s="171"/>
@@ -4119,14 +4119,14 @@
       <c r="M26" s="171"/>
       <c r="N26" s="171"/>
       <c r="O26" s="171"/>
-      <c r="P26" s="360"/>
+      <c r="P26" s="373"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="360"/>
+      <c r="A27" s="373"/>
       <c r="B27" s="375"/>
-      <c r="C27" s="360"/>
-      <c r="D27" s="372"/>
-      <c r="E27" s="360"/>
+      <c r="C27" s="373"/>
+      <c r="D27" s="383"/>
+      <c r="E27" s="373"/>
       <c r="F27" s="170"/>
       <c r="G27" s="170"/>
       <c r="H27" s="171"/>
@@ -4137,14 +4137,14 @@
       <c r="M27" s="171"/>
       <c r="N27" s="171"/>
       <c r="O27" s="171"/>
-      <c r="P27" s="360"/>
+      <c r="P27" s="373"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="360"/>
+      <c r="A28" s="373"/>
       <c r="B28" s="375"/>
-      <c r="C28" s="360"/>
-      <c r="D28" s="372"/>
-      <c r="E28" s="360"/>
+      <c r="C28" s="373"/>
+      <c r="D28" s="383"/>
+      <c r="E28" s="373"/>
       <c r="F28" s="174"/>
       <c r="G28" s="174"/>
       <c r="H28" s="175"/>
@@ -4155,14 +4155,14 @@
       <c r="M28" s="175"/>
       <c r="N28" s="175"/>
       <c r="O28" s="175"/>
-      <c r="P28" s="360"/>
+      <c r="P28" s="373"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="360"/>
+      <c r="A29" s="373"/>
       <c r="B29" s="375"/>
-      <c r="C29" s="360"/>
-      <c r="D29" s="372"/>
-      <c r="E29" s="360"/>
+      <c r="C29" s="373"/>
+      <c r="D29" s="383"/>
+      <c r="E29" s="373"/>
       <c r="F29" s="309"/>
       <c r="G29" s="309"/>
       <c r="H29" s="310"/>
@@ -4173,14 +4173,14 @@
       <c r="M29" s="310"/>
       <c r="N29" s="310"/>
       <c r="O29" s="310"/>
-      <c r="P29" s="386"/>
+      <c r="P29" s="376"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="385"/>
-      <c r="B30" s="387"/>
-      <c r="C30" s="385"/>
-      <c r="D30" s="385"/>
-      <c r="E30" s="385"/>
+      <c r="A30" s="372"/>
+      <c r="B30" s="374"/>
+      <c r="C30" s="372"/>
+      <c r="D30" s="372"/>
+      <c r="E30" s="372"/>
       <c r="F30" s="162"/>
       <c r="G30" s="162"/>
       <c r="H30" s="163"/>
@@ -4191,14 +4191,14 @@
       <c r="M30" s="163"/>
       <c r="N30" s="163"/>
       <c r="O30" s="163"/>
-      <c r="P30" s="385"/>
+      <c r="P30" s="372"/>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="360"/>
+      <c r="A31" s="373"/>
       <c r="B31" s="375"/>
-      <c r="C31" s="360"/>
-      <c r="D31" s="360"/>
-      <c r="E31" s="360"/>
+      <c r="C31" s="373"/>
+      <c r="D31" s="373"/>
+      <c r="E31" s="373"/>
       <c r="F31" s="174"/>
       <c r="G31" s="174"/>
       <c r="H31" s="175"/>
@@ -4209,14 +4209,14 @@
       <c r="M31" s="175"/>
       <c r="N31" s="175"/>
       <c r="O31" s="175"/>
-      <c r="P31" s="360"/>
+      <c r="P31" s="373"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="360"/>
+      <c r="A32" s="373"/>
       <c r="B32" s="375"/>
-      <c r="C32" s="360"/>
-      <c r="D32" s="360"/>
-      <c r="E32" s="360"/>
+      <c r="C32" s="373"/>
+      <c r="D32" s="373"/>
+      <c r="E32" s="373"/>
       <c r="F32" s="174"/>
       <c r="G32" s="174"/>
       <c r="H32" s="175"/>
@@ -4227,14 +4227,14 @@
       <c r="M32" s="175"/>
       <c r="N32" s="175"/>
       <c r="O32" s="175"/>
-      <c r="P32" s="360"/>
+      <c r="P32" s="373"/>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="360"/>
+      <c r="A33" s="373"/>
       <c r="B33" s="375"/>
-      <c r="C33" s="360"/>
-      <c r="D33" s="360"/>
-      <c r="E33" s="360"/>
+      <c r="C33" s="373"/>
+      <c r="D33" s="373"/>
+      <c r="E33" s="373"/>
       <c r="F33" s="174"/>
       <c r="G33" s="174"/>
       <c r="H33" s="175"/>
@@ -4245,14 +4245,14 @@
       <c r="M33" s="175"/>
       <c r="N33" s="175"/>
       <c r="O33" s="175"/>
-      <c r="P33" s="360"/>
+      <c r="P33" s="373"/>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="360"/>
+      <c r="A34" s="373"/>
       <c r="B34" s="375"/>
-      <c r="C34" s="360"/>
-      <c r="D34" s="360"/>
-      <c r="E34" s="360"/>
+      <c r="C34" s="373"/>
+      <c r="D34" s="373"/>
+      <c r="E34" s="373"/>
       <c r="F34" s="174"/>
       <c r="G34" s="174"/>
       <c r="H34" s="175"/>
@@ -4263,14 +4263,14 @@
       <c r="M34" s="175"/>
       <c r="N34" s="175"/>
       <c r="O34" s="175"/>
-      <c r="P34" s="360"/>
+      <c r="P34" s="373"/>
     </row>
     <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="360"/>
+      <c r="A35" s="373"/>
       <c r="B35" s="375"/>
-      <c r="C35" s="360"/>
-      <c r="D35" s="360"/>
-      <c r="E35" s="360"/>
+      <c r="C35" s="373"/>
+      <c r="D35" s="373"/>
+      <c r="E35" s="373"/>
       <c r="F35" s="174"/>
       <c r="G35" s="174"/>
       <c r="H35" s="175"/>
@@ -4281,14 +4281,14 @@
       <c r="M35" s="175"/>
       <c r="N35" s="175"/>
       <c r="O35" s="175"/>
-      <c r="P35" s="360"/>
+      <c r="P35" s="373"/>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="360"/>
+      <c r="A36" s="373"/>
       <c r="B36" s="375"/>
-      <c r="C36" s="360"/>
-      <c r="D36" s="360"/>
-      <c r="E36" s="360"/>
+      <c r="C36" s="373"/>
+      <c r="D36" s="373"/>
+      <c r="E36" s="373"/>
       <c r="F36" s="174"/>
       <c r="G36" s="174"/>
       <c r="H36" s="175"/>
@@ -4299,14 +4299,14 @@
       <c r="M36" s="175"/>
       <c r="N36" s="175"/>
       <c r="O36" s="175"/>
-      <c r="P36" s="360"/>
+      <c r="P36" s="373"/>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="360"/>
+      <c r="A37" s="373"/>
       <c r="B37" s="375"/>
-      <c r="C37" s="360"/>
-      <c r="D37" s="360"/>
-      <c r="E37" s="360"/>
+      <c r="C37" s="373"/>
+      <c r="D37" s="373"/>
+      <c r="E37" s="373"/>
       <c r="F37" s="309"/>
       <c r="G37" s="309"/>
       <c r="H37" s="310"/>
@@ -4317,14 +4317,14 @@
       <c r="M37" s="310"/>
       <c r="N37" s="310"/>
       <c r="O37" s="310"/>
-      <c r="P37" s="360"/>
+      <c r="P37" s="373"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="382"/>
-      <c r="B38" s="379"/>
-      <c r="C38" s="382"/>
-      <c r="D38" s="382"/>
-      <c r="E38" s="382"/>
+      <c r="A38" s="362"/>
+      <c r="B38" s="359"/>
+      <c r="C38" s="362"/>
+      <c r="D38" s="362"/>
+      <c r="E38" s="362"/>
       <c r="F38" s="162"/>
       <c r="G38" s="162"/>
       <c r="H38" s="163"/>
@@ -4338,11 +4338,11 @@
       <c r="P38" s="162"/>
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="383"/>
-      <c r="B39" s="380"/>
-      <c r="C39" s="383"/>
-      <c r="D39" s="383"/>
-      <c r="E39" s="383"/>
+      <c r="A39" s="363"/>
+      <c r="B39" s="360"/>
+      <c r="C39" s="363"/>
+      <c r="D39" s="363"/>
+      <c r="E39" s="363"/>
       <c r="F39" s="174"/>
       <c r="G39" s="174"/>
       <c r="H39" s="175"/>
@@ -4356,11 +4356,11 @@
       <c r="P39" s="174"/>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="383"/>
-      <c r="B40" s="380"/>
-      <c r="C40" s="383"/>
-      <c r="D40" s="383"/>
-      <c r="E40" s="383"/>
+      <c r="A40" s="363"/>
+      <c r="B40" s="360"/>
+      <c r="C40" s="363"/>
+      <c r="D40" s="363"/>
+      <c r="E40" s="363"/>
       <c r="F40" s="174"/>
       <c r="G40" s="174"/>
       <c r="H40" s="175"/>
@@ -4374,11 +4374,11 @@
       <c r="P40" s="174"/>
     </row>
     <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="384"/>
-      <c r="B41" s="381"/>
-      <c r="C41" s="384"/>
-      <c r="D41" s="384"/>
-      <c r="E41" s="384"/>
+      <c r="A41" s="364"/>
+      <c r="B41" s="361"/>
+      <c r="C41" s="364"/>
+      <c r="D41" s="364"/>
+      <c r="E41" s="364"/>
       <c r="F41" s="165"/>
       <c r="G41" s="165"/>
       <c r="H41" s="166"/>
@@ -4392,11 +4392,11 @@
       <c r="P41" s="326"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="385"/>
-      <c r="B42" s="387"/>
-      <c r="C42" s="385"/>
-      <c r="D42" s="385"/>
-      <c r="E42" s="385"/>
+      <c r="A42" s="372"/>
+      <c r="B42" s="374"/>
+      <c r="C42" s="372"/>
+      <c r="D42" s="372"/>
+      <c r="E42" s="372"/>
       <c r="F42" s="207"/>
       <c r="G42" s="207"/>
       <c r="H42" s="208"/>
@@ -4410,11 +4410,11 @@
       <c r="P42" s="325"/>
     </row>
     <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="360"/>
+      <c r="A43" s="373"/>
       <c r="B43" s="375"/>
-      <c r="C43" s="360"/>
-      <c r="D43" s="360"/>
-      <c r="E43" s="360"/>
+      <c r="C43" s="373"/>
+      <c r="D43" s="373"/>
+      <c r="E43" s="373"/>
       <c r="F43" s="309"/>
       <c r="G43" s="309"/>
       <c r="H43" s="310"/>
@@ -4428,11 +4428,11 @@
       <c r="P43" s="331"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="385"/>
-      <c r="B44" s="387"/>
-      <c r="C44" s="385"/>
-      <c r="D44" s="388"/>
-      <c r="E44" s="385"/>
+      <c r="A44" s="372"/>
+      <c r="B44" s="374"/>
+      <c r="C44" s="372"/>
+      <c r="D44" s="382"/>
+      <c r="E44" s="372"/>
       <c r="F44" s="162"/>
       <c r="G44" s="162"/>
       <c r="H44" s="163"/>
@@ -4446,11 +4446,11 @@
       <c r="P44" s="332"/>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="360"/>
+      <c r="A45" s="373"/>
       <c r="B45" s="375"/>
-      <c r="C45" s="360"/>
-      <c r="D45" s="372"/>
-      <c r="E45" s="360"/>
+      <c r="C45" s="373"/>
+      <c r="D45" s="383"/>
+      <c r="E45" s="373"/>
       <c r="F45" s="174"/>
       <c r="G45" s="174"/>
       <c r="H45" s="175"/>
@@ -4464,11 +4464,11 @@
       <c r="P45" s="199"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="386"/>
-      <c r="B46" s="389"/>
-      <c r="C46" s="386"/>
-      <c r="D46" s="390"/>
-      <c r="E46" s="386"/>
+      <c r="A46" s="376"/>
+      <c r="B46" s="381"/>
+      <c r="C46" s="376"/>
+      <c r="D46" s="384"/>
+      <c r="E46" s="376"/>
       <c r="F46" s="165"/>
       <c r="G46" s="165"/>
       <c r="H46" s="166"/>
@@ -4518,11 +4518,11 @@
       <c r="P48" s="156"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="360"/>
+      <c r="A49" s="373"/>
       <c r="B49" s="375"/>
-      <c r="C49" s="360"/>
-      <c r="D49" s="360"/>
-      <c r="E49" s="360"/>
+      <c r="C49" s="373"/>
+      <c r="D49" s="373"/>
+      <c r="E49" s="373"/>
       <c r="F49" s="207"/>
       <c r="G49" s="207"/>
       <c r="H49" s="208"/>
@@ -4536,11 +4536,11 @@
       <c r="P49" s="325"/>
     </row>
     <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="360"/>
+      <c r="A50" s="373"/>
       <c r="B50" s="375"/>
-      <c r="C50" s="360"/>
-      <c r="D50" s="360"/>
-      <c r="E50" s="360"/>
+      <c r="C50" s="373"/>
+      <c r="D50" s="373"/>
+      <c r="E50" s="373"/>
       <c r="F50" s="309"/>
       <c r="G50" s="309"/>
       <c r="H50" s="310"/>
@@ -4554,11 +4554,11 @@
       <c r="P50" s="331"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="382"/>
-      <c r="B51" s="379"/>
-      <c r="C51" s="382"/>
-      <c r="D51" s="382"/>
-      <c r="E51" s="382"/>
+      <c r="A51" s="362"/>
+      <c r="B51" s="359"/>
+      <c r="C51" s="362"/>
+      <c r="D51" s="362"/>
+      <c r="E51" s="362"/>
       <c r="F51" s="162"/>
       <c r="G51" s="162"/>
       <c r="H51" s="163"/>
@@ -4572,11 +4572,11 @@
       <c r="P51" s="332"/>
     </row>
     <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="383"/>
-      <c r="B52" s="380"/>
-      <c r="C52" s="383"/>
-      <c r="D52" s="383"/>
-      <c r="E52" s="383"/>
+      <c r="A52" s="363"/>
+      <c r="B52" s="360"/>
+      <c r="C52" s="363"/>
+      <c r="D52" s="363"/>
+      <c r="E52" s="363"/>
       <c r="F52" s="174"/>
       <c r="G52" s="174"/>
       <c r="H52" s="175"/>
@@ -4590,11 +4590,11 @@
       <c r="P52" s="199"/>
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="383"/>
-      <c r="B53" s="380"/>
-      <c r="C53" s="383"/>
-      <c r="D53" s="383"/>
-      <c r="E53" s="383"/>
+      <c r="A53" s="363"/>
+      <c r="B53" s="360"/>
+      <c r="C53" s="363"/>
+      <c r="D53" s="363"/>
+      <c r="E53" s="363"/>
       <c r="F53" s="174"/>
       <c r="G53" s="174"/>
       <c r="H53" s="175"/>
@@ -4608,11 +4608,11 @@
       <c r="P53" s="174"/>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="384"/>
-      <c r="B54" s="381"/>
-      <c r="C54" s="384"/>
-      <c r="D54" s="384"/>
-      <c r="E54" s="384"/>
+      <c r="A54" s="364"/>
+      <c r="B54" s="361"/>
+      <c r="C54" s="364"/>
+      <c r="D54" s="364"/>
+      <c r="E54" s="364"/>
       <c r="F54" s="165"/>
       <c r="G54" s="165"/>
       <c r="H54" s="166"/>
@@ -4626,11 +4626,11 @@
       <c r="P54" s="165"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="382"/>
-      <c r="B55" s="379"/>
-      <c r="C55" s="382"/>
-      <c r="D55" s="382"/>
-      <c r="E55" s="382"/>
+      <c r="A55" s="362"/>
+      <c r="B55" s="359"/>
+      <c r="C55" s="362"/>
+      <c r="D55" s="362"/>
+      <c r="E55" s="362"/>
       <c r="F55" s="162"/>
       <c r="G55" s="162"/>
       <c r="H55" s="163"/>
@@ -4644,11 +4644,11 @@
       <c r="P55" s="162"/>
     </row>
     <row r="56" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="383"/>
-      <c r="B56" s="380"/>
-      <c r="C56" s="383"/>
-      <c r="D56" s="383"/>
-      <c r="E56" s="383"/>
+      <c r="A56" s="363"/>
+      <c r="B56" s="360"/>
+      <c r="C56" s="363"/>
+      <c r="D56" s="363"/>
+      <c r="E56" s="363"/>
       <c r="F56" s="174"/>
       <c r="G56" s="174"/>
       <c r="H56" s="175"/>
@@ -4662,11 +4662,11 @@
       <c r="P56" s="174"/>
     </row>
     <row r="57" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="384"/>
-      <c r="B57" s="381"/>
-      <c r="C57" s="384"/>
-      <c r="D57" s="384"/>
-      <c r="E57" s="384"/>
+      <c r="A57" s="364"/>
+      <c r="B57" s="361"/>
+      <c r="C57" s="364"/>
+      <c r="D57" s="364"/>
+      <c r="E57" s="364"/>
       <c r="F57" s="165"/>
       <c r="G57" s="165"/>
       <c r="H57" s="166"/>
@@ -4716,11 +4716,11 @@
       <c r="P59" s="174"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="359"/>
-      <c r="B60" s="374"/>
-      <c r="C60" s="359"/>
-      <c r="D60" s="359"/>
-      <c r="E60" s="359"/>
+      <c r="A60" s="385"/>
+      <c r="B60" s="387"/>
+      <c r="C60" s="385"/>
+      <c r="D60" s="385"/>
+      <c r="E60" s="385"/>
       <c r="F60" s="174"/>
       <c r="G60" s="174"/>
       <c r="H60" s="175"/>
@@ -4734,11 +4734,11 @@
       <c r="P60" s="174"/>
     </row>
     <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="361"/>
-      <c r="B61" s="376"/>
-      <c r="C61" s="361"/>
-      <c r="D61" s="361"/>
-      <c r="E61" s="361"/>
+      <c r="A61" s="386"/>
+      <c r="B61" s="388"/>
+      <c r="C61" s="386"/>
+      <c r="D61" s="386"/>
+      <c r="E61" s="386"/>
       <c r="F61" s="174"/>
       <c r="G61" s="174"/>
       <c r="H61" s="175"/>
@@ -4752,11 +4752,11 @@
       <c r="P61" s="174"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" s="359"/>
-      <c r="B62" s="374"/>
-      <c r="C62" s="359"/>
-      <c r="D62" s="359"/>
-      <c r="E62" s="359"/>
+      <c r="A62" s="385"/>
+      <c r="B62" s="387"/>
+      <c r="C62" s="385"/>
+      <c r="D62" s="385"/>
+      <c r="E62" s="385"/>
       <c r="F62" s="174"/>
       <c r="G62" s="174"/>
       <c r="H62" s="175"/>
@@ -4770,11 +4770,11 @@
       <c r="P62" s="174"/>
     </row>
     <row r="63" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="361"/>
-      <c r="B63" s="376"/>
-      <c r="C63" s="361"/>
-      <c r="D63" s="361"/>
-      <c r="E63" s="361"/>
+      <c r="A63" s="386"/>
+      <c r="B63" s="388"/>
+      <c r="C63" s="386"/>
+      <c r="D63" s="386"/>
+      <c r="E63" s="386"/>
       <c r="F63" s="174"/>
       <c r="G63" s="174"/>
       <c r="H63" s="175"/>
@@ -4824,11 +4824,11 @@
       <c r="P65" s="174"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="359"/>
-      <c r="B66" s="374"/>
-      <c r="C66" s="359"/>
-      <c r="D66" s="359"/>
-      <c r="E66" s="359"/>
+      <c r="A66" s="385"/>
+      <c r="B66" s="387"/>
+      <c r="C66" s="385"/>
+      <c r="D66" s="385"/>
+      <c r="E66" s="385"/>
       <c r="F66" s="174"/>
       <c r="G66" s="174"/>
       <c r="H66" s="175"/>
@@ -4839,14 +4839,14 @@
       <c r="M66" s="175"/>
       <c r="N66" s="175"/>
       <c r="O66" s="175"/>
-      <c r="P66" s="377"/>
+      <c r="P66" s="389"/>
     </row>
     <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="361"/>
-      <c r="B67" s="376"/>
-      <c r="C67" s="361"/>
-      <c r="D67" s="361"/>
-      <c r="E67" s="361"/>
+      <c r="A67" s="386"/>
+      <c r="B67" s="388"/>
+      <c r="C67" s="386"/>
+      <c r="D67" s="386"/>
+      <c r="E67" s="386"/>
       <c r="F67" s="174"/>
       <c r="G67" s="174"/>
       <c r="H67" s="175"/>
@@ -4857,130 +4857,130 @@
       <c r="M67" s="175"/>
       <c r="N67" s="175"/>
       <c r="O67" s="175"/>
-      <c r="P67" s="378"/>
+      <c r="P67" s="390"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="359"/>
-      <c r="B68" s="374"/>
-      <c r="C68" s="359"/>
-      <c r="D68" s="371"/>
-      <c r="E68" s="359"/>
+      <c r="A68" s="385"/>
+      <c r="B68" s="387"/>
+      <c r="C68" s="385"/>
+      <c r="D68" s="400"/>
+      <c r="E68" s="385"/>
       <c r="F68" s="174"/>
       <c r="G68" s="174"/>
       <c r="H68" s="175"/>
       <c r="I68" s="175"/>
-      <c r="J68" s="362"/>
-      <c r="K68" s="365"/>
-      <c r="L68" s="368"/>
-      <c r="M68" s="368"/>
+      <c r="J68" s="391"/>
+      <c r="K68" s="394"/>
+      <c r="L68" s="397"/>
+      <c r="M68" s="397"/>
       <c r="N68" s="175"/>
       <c r="O68" s="175"/>
       <c r="P68" s="174"/>
     </row>
     <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="360"/>
+      <c r="A69" s="373"/>
       <c r="B69" s="375"/>
-      <c r="C69" s="360"/>
-      <c r="D69" s="372"/>
-      <c r="E69" s="360"/>
+      <c r="C69" s="373"/>
+      <c r="D69" s="383"/>
+      <c r="E69" s="373"/>
       <c r="F69" s="174"/>
       <c r="G69" s="174"/>
       <c r="H69" s="175"/>
       <c r="I69" s="175"/>
-      <c r="J69" s="363"/>
-      <c r="K69" s="366"/>
-      <c r="L69" s="369"/>
-      <c r="M69" s="369"/>
+      <c r="J69" s="392"/>
+      <c r="K69" s="395"/>
+      <c r="L69" s="398"/>
+      <c r="M69" s="398"/>
       <c r="N69" s="175"/>
       <c r="O69" s="175"/>
       <c r="P69" s="174"/>
     </row>
     <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="360"/>
+      <c r="A70" s="373"/>
       <c r="B70" s="375"/>
-      <c r="C70" s="360"/>
-      <c r="D70" s="372"/>
-      <c r="E70" s="360"/>
+      <c r="C70" s="373"/>
+      <c r="D70" s="383"/>
+      <c r="E70" s="373"/>
       <c r="F70" s="174"/>
       <c r="G70" s="174"/>
       <c r="H70" s="175"/>
       <c r="I70" s="175"/>
-      <c r="J70" s="363"/>
-      <c r="K70" s="366"/>
-      <c r="L70" s="369"/>
-      <c r="M70" s="369"/>
+      <c r="J70" s="392"/>
+      <c r="K70" s="395"/>
+      <c r="L70" s="398"/>
+      <c r="M70" s="398"/>
       <c r="N70" s="175"/>
       <c r="O70" s="175"/>
       <c r="P70" s="174"/>
     </row>
     <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="360"/>
+      <c r="A71" s="373"/>
       <c r="B71" s="375"/>
-      <c r="C71" s="360"/>
-      <c r="D71" s="372"/>
-      <c r="E71" s="360"/>
+      <c r="C71" s="373"/>
+      <c r="D71" s="383"/>
+      <c r="E71" s="373"/>
       <c r="F71" s="174"/>
       <c r="G71" s="174"/>
       <c r="H71" s="175"/>
       <c r="I71" s="175"/>
-      <c r="J71" s="363"/>
-      <c r="K71" s="366"/>
-      <c r="L71" s="369"/>
-      <c r="M71" s="369"/>
+      <c r="J71" s="392"/>
+      <c r="K71" s="395"/>
+      <c r="L71" s="398"/>
+      <c r="M71" s="398"/>
       <c r="N71" s="175"/>
       <c r="O71" s="175"/>
       <c r="P71" s="174"/>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="360"/>
+      <c r="A72" s="373"/>
       <c r="B72" s="375"/>
-      <c r="C72" s="360"/>
-      <c r="D72" s="372"/>
-      <c r="E72" s="360"/>
+      <c r="C72" s="373"/>
+      <c r="D72" s="383"/>
+      <c r="E72" s="373"/>
       <c r="F72" s="174"/>
       <c r="G72" s="174"/>
       <c r="H72" s="175"/>
       <c r="I72" s="175"/>
-      <c r="J72" s="363"/>
-      <c r="K72" s="366"/>
-      <c r="L72" s="369"/>
-      <c r="M72" s="369"/>
+      <c r="J72" s="392"/>
+      <c r="K72" s="395"/>
+      <c r="L72" s="398"/>
+      <c r="M72" s="398"/>
       <c r="N72" s="175"/>
       <c r="O72" s="175"/>
       <c r="P72" s="174"/>
     </row>
     <row r="73" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="360"/>
+      <c r="A73" s="373"/>
       <c r="B73" s="375"/>
-      <c r="C73" s="360"/>
-      <c r="D73" s="372"/>
-      <c r="E73" s="360"/>
+      <c r="C73" s="373"/>
+      <c r="D73" s="383"/>
+      <c r="E73" s="373"/>
       <c r="F73" s="174"/>
       <c r="G73" s="174"/>
       <c r="H73" s="175"/>
       <c r="I73" s="175"/>
-      <c r="J73" s="363"/>
-      <c r="K73" s="366"/>
-      <c r="L73" s="369"/>
-      <c r="M73" s="369"/>
+      <c r="J73" s="392"/>
+      <c r="K73" s="395"/>
+      <c r="L73" s="398"/>
+      <c r="M73" s="398"/>
       <c r="N73" s="175"/>
       <c r="O73" s="175"/>
       <c r="P73" s="174"/>
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="361"/>
-      <c r="B74" s="376"/>
-      <c r="C74" s="361"/>
-      <c r="D74" s="373"/>
-      <c r="E74" s="361"/>
+      <c r="A74" s="386"/>
+      <c r="B74" s="388"/>
+      <c r="C74" s="386"/>
+      <c r="D74" s="401"/>
+      <c r="E74" s="386"/>
       <c r="F74" s="174"/>
       <c r="G74" s="174"/>
       <c r="H74" s="175"/>
       <c r="I74" s="175"/>
-      <c r="J74" s="364"/>
-      <c r="K74" s="367"/>
-      <c r="L74" s="370"/>
-      <c r="M74" s="370"/>
+      <c r="J74" s="393"/>
+      <c r="K74" s="396"/>
+      <c r="L74" s="399"/>
+      <c r="M74" s="399"/>
       <c r="N74" s="175"/>
       <c r="O74" s="175"/>
       <c r="P74" s="199"/>
@@ -5040,14 +5040,14 @@
       <c r="P77" s="165"/>
     </row>
     <row r="78" spans="1:17" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="392" t="s">
+      <c r="A78" s="377" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="392"/>
-      <c r="C78" s="392"/>
-      <c r="D78" s="392"/>
-      <c r="E78" s="392"/>
-      <c r="F78" s="392"/>
+      <c r="B78" s="377"/>
+      <c r="C78" s="377"/>
+      <c r="D78" s="377"/>
+      <c r="E78" s="377"/>
+      <c r="F78" s="377"/>
       <c r="G78" s="131">
         <f>SUM(G8:G77)</f>
         <v>0</v>
@@ -5067,17 +5067,17 @@
       <c r="N78" s="132"/>
       <c r="O78" s="132"/>
       <c r="P78" s="132"/>
-      <c r="Q78" s="398"/>
+      <c r="Q78" s="365"/>
     </row>
     <row r="79" spans="1:17" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="391" t="s">
-        <v>137</v>
-      </c>
-      <c r="B79" s="391"/>
-      <c r="C79" s="391"/>
-      <c r="D79" s="391"/>
-      <c r="E79" s="391"/>
-      <c r="F79" s="391"/>
+      <c r="A79" s="366" t="s">
+        <v>136</v>
+      </c>
+      <c r="B79" s="366"/>
+      <c r="C79" s="366"/>
+      <c r="D79" s="366"/>
+      <c r="E79" s="366"/>
+      <c r="F79" s="366"/>
       <c r="G79" s="131">
         <f>G78</f>
         <v>0</v>
@@ -5094,17 +5094,17 @@
       <c r="N79" s="136"/>
       <c r="O79" s="136"/>
       <c r="P79" s="136"/>
-      <c r="Q79" s="398"/>
+      <c r="Q79" s="365"/>
     </row>
     <row r="80" spans="1:17" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="391" t="s">
+      <c r="A80" s="366" t="s">
         <v>77</v>
       </c>
-      <c r="B80" s="391"/>
-      <c r="C80" s="391"/>
-      <c r="D80" s="391"/>
-      <c r="E80" s="391"/>
-      <c r="F80" s="391"/>
+      <c r="B80" s="366"/>
+      <c r="C80" s="366"/>
+      <c r="D80" s="366"/>
+      <c r="E80" s="366"/>
+      <c r="F80" s="366"/>
       <c r="G80" s="137" t="s">
         <v>45</v>
       </c>
@@ -5122,14 +5122,14 @@
       <c r="P80" s="138"/>
     </row>
     <row r="81" spans="1:16" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="391" t="s">
+      <c r="A81" s="366" t="s">
         <v>78</v>
       </c>
-      <c r="B81" s="391"/>
-      <c r="C81" s="391"/>
-      <c r="D81" s="391"/>
-      <c r="E81" s="391"/>
-      <c r="F81" s="391"/>
+      <c r="B81" s="366"/>
+      <c r="C81" s="366"/>
+      <c r="D81" s="366"/>
+      <c r="E81" s="366"/>
+      <c r="F81" s="366"/>
       <c r="G81" s="136"/>
       <c r="H81" s="136"/>
       <c r="I81" s="132"/>
@@ -5145,14 +5145,14 @@
       <c r="P81" s="138"/>
     </row>
     <row r="82" spans="1:16" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="391" t="s">
+      <c r="A82" s="366" t="s">
         <v>79</v>
       </c>
-      <c r="B82" s="391"/>
-      <c r="C82" s="391"/>
-      <c r="D82" s="391"/>
-      <c r="E82" s="391"/>
-      <c r="F82" s="391"/>
+      <c r="B82" s="366"/>
+      <c r="C82" s="366"/>
+      <c r="D82" s="366"/>
+      <c r="E82" s="366"/>
+      <c r="F82" s="366"/>
       <c r="G82" s="136"/>
       <c r="H82" s="136"/>
       <c r="I82" s="132"/>
@@ -5223,6 +5223,96 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="114">
+    <mergeCell ref="E68:E74"/>
+    <mergeCell ref="J68:J74"/>
+    <mergeCell ref="K68:K74"/>
+    <mergeCell ref="L68:L74"/>
+    <mergeCell ref="M68:M74"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="D68:D74"/>
+    <mergeCell ref="B68:B74"/>
+    <mergeCell ref="C68:C74"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="P66:P67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="P25:P29"/>
+    <mergeCell ref="P30:P37"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="E30:E37"/>
+    <mergeCell ref="D30:D37"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A49:A50"/>
     <mergeCell ref="B55:B57"/>
     <mergeCell ref="A55:A57"/>
     <mergeCell ref="Q78:Q79"/>
@@ -5247,96 +5337,6 @@
     <mergeCell ref="E44:E46"/>
     <mergeCell ref="D51:D54"/>
     <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="P25:P29"/>
-    <mergeCell ref="P30:P37"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="E30:E37"/>
-    <mergeCell ref="D30:D37"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="P66:P67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="E68:E74"/>
-    <mergeCell ref="J68:J74"/>
-    <mergeCell ref="K68:K74"/>
-    <mergeCell ref="L68:L74"/>
-    <mergeCell ref="M68:M74"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="D68:D74"/>
-    <mergeCell ref="B68:B74"/>
-    <mergeCell ref="C68:C74"/>
-    <mergeCell ref="A68:A74"/>
   </mergeCells>
   <pageMargins left="0.19" right="0.22" top="0.4" bottom="0.42" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5347,7 +5347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
@@ -5377,79 +5377,79 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="260" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="412" t="s">
+      <c r="A3" s="404" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="412"/>
-      <c r="C3" s="412"/>
-      <c r="D3" s="412"/>
-      <c r="E3" s="412"/>
-      <c r="F3" s="412"/>
-      <c r="G3" s="412"/>
-      <c r="H3" s="412"/>
-      <c r="I3" s="412"/>
-      <c r="J3" s="412"/>
-      <c r="K3" s="412"/>
+      <c r="B3" s="404"/>
+      <c r="C3" s="404"/>
+      <c r="D3" s="404"/>
+      <c r="E3" s="404"/>
+      <c r="F3" s="404"/>
+      <c r="G3" s="404"/>
+      <c r="H3" s="404"/>
+      <c r="I3" s="404"/>
+      <c r="J3" s="404"/>
+      <c r="K3" s="404"/>
       <c r="L3" s="261"/>
       <c r="M3" s="261"/>
       <c r="N3" s="261"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="413" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="413"/>
-      <c r="C4" s="413"/>
-      <c r="D4" s="413"/>
-      <c r="E4" s="413"/>
-      <c r="F4" s="413"/>
-      <c r="G4" s="413"/>
-      <c r="H4" s="413"/>
-      <c r="I4" s="413"/>
-      <c r="J4" s="414"/>
-      <c r="K4" s="413"/>
+      <c r="A4" s="405" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="405"/>
+      <c r="C4" s="405"/>
+      <c r="D4" s="405"/>
+      <c r="E4" s="405"/>
+      <c r="F4" s="405"/>
+      <c r="G4" s="405"/>
+      <c r="H4" s="405"/>
+      <c r="I4" s="405"/>
+      <c r="J4" s="406"/>
+      <c r="K4" s="405"/>
       <c r="L4" s="262"/>
       <c r="M4" s="262"/>
       <c r="N4" s="262"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="415" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="416" t="s">
+      <c r="A5" s="407" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="408" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="415" t="s">
+      <c r="C5" s="407" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="415" t="s">
+      <c r="D5" s="407" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="415"/>
-      <c r="F5" s="417" t="s">
+      <c r="E5" s="407"/>
+      <c r="F5" s="409" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="417"/>
-      <c r="H5" s="417"/>
-      <c r="I5" s="417"/>
-      <c r="J5" s="418"/>
-      <c r="K5" s="419" t="s">
+      <c r="G5" s="409"/>
+      <c r="H5" s="409"/>
+      <c r="I5" s="409"/>
+      <c r="J5" s="410"/>
+      <c r="K5" s="411" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="411" t="s">
+      <c r="L5" s="403" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="411"/>
-      <c r="N5" s="411"/>
+      <c r="M5" s="403"/>
+      <c r="N5" s="403"/>
     </row>
     <row r="6" spans="1:14" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="415"/>
-      <c r="B6" s="416"/>
-      <c r="C6" s="415"/>
+      <c r="A6" s="407"/>
+      <c r="B6" s="408"/>
+      <c r="C6" s="407"/>
       <c r="D6" s="263" t="s">
         <v>40</v>
       </c>
@@ -5471,7 +5471,7 @@
       <c r="J6" s="267" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="419"/>
+      <c r="K6" s="411"/>
       <c r="L6" s="268" t="s">
         <v>52</v>
       </c>
@@ -5483,11 +5483,11 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="420"/>
-      <c r="B7" s="421"/>
-      <c r="C7" s="420"/>
-      <c r="D7" s="420"/>
-      <c r="E7" s="420"/>
+      <c r="A7" s="412"/>
+      <c r="B7" s="415"/>
+      <c r="C7" s="412"/>
+      <c r="D7" s="412"/>
+      <c r="E7" s="412"/>
       <c r="F7" s="269"/>
       <c r="G7" s="269"/>
       <c r="H7" s="270"/>
@@ -5499,11 +5499,11 @@
       <c r="N7" s="273"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="406"/>
-      <c r="B8" s="403"/>
-      <c r="C8" s="406"/>
-      <c r="D8" s="406"/>
-      <c r="E8" s="406"/>
+      <c r="A8" s="413"/>
+      <c r="B8" s="416"/>
+      <c r="C8" s="413"/>
+      <c r="D8" s="413"/>
+      <c r="E8" s="413"/>
       <c r="F8" s="274"/>
       <c r="G8" s="274"/>
       <c r="H8" s="275"/>
@@ -5515,11 +5515,11 @@
       <c r="N8" s="278"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="408"/>
-      <c r="B9" s="409"/>
-      <c r="C9" s="408"/>
-      <c r="D9" s="408"/>
-      <c r="E9" s="408"/>
+      <c r="A9" s="414"/>
+      <c r="B9" s="417"/>
+      <c r="C9" s="414"/>
+      <c r="D9" s="414"/>
+      <c r="E9" s="414"/>
       <c r="F9" s="274"/>
       <c r="G9" s="274"/>
       <c r="H9" s="275"/>
@@ -5547,11 +5547,11 @@
       <c r="N10" s="278"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="405"/>
-      <c r="B11" s="402"/>
-      <c r="C11" s="405"/>
-      <c r="D11" s="405"/>
-      <c r="E11" s="405"/>
+      <c r="A11" s="418"/>
+      <c r="B11" s="419"/>
+      <c r="C11" s="418"/>
+      <c r="D11" s="418"/>
+      <c r="E11" s="418"/>
       <c r="F11" s="274"/>
       <c r="G11" s="274"/>
       <c r="H11" s="275"/>
@@ -5563,11 +5563,11 @@
       <c r="N11" s="278"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="406"/>
-      <c r="B12" s="403"/>
-      <c r="C12" s="406"/>
-      <c r="D12" s="406"/>
-      <c r="E12" s="406"/>
+      <c r="A12" s="413"/>
+      <c r="B12" s="416"/>
+      <c r="C12" s="413"/>
+      <c r="D12" s="413"/>
+      <c r="E12" s="413"/>
       <c r="F12" s="274"/>
       <c r="G12" s="274"/>
       <c r="H12" s="275"/>
@@ -5579,11 +5579,11 @@
       <c r="N12" s="278"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="408"/>
-      <c r="B13" s="409"/>
-      <c r="C13" s="408"/>
-      <c r="D13" s="408"/>
-      <c r="E13" s="408"/>
+      <c r="A13" s="414"/>
+      <c r="B13" s="417"/>
+      <c r="C13" s="414"/>
+      <c r="D13" s="414"/>
+      <c r="E13" s="414"/>
       <c r="F13" s="274"/>
       <c r="G13" s="274"/>
       <c r="H13" s="275"/>
@@ -5595,11 +5595,11 @@
       <c r="N13" s="278"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="405"/>
-      <c r="B14" s="402"/>
-      <c r="C14" s="405"/>
-      <c r="D14" s="405"/>
-      <c r="E14" s="405"/>
+      <c r="A14" s="418"/>
+      <c r="B14" s="419"/>
+      <c r="C14" s="418"/>
+      <c r="D14" s="418"/>
+      <c r="E14" s="418"/>
       <c r="F14" s="274"/>
       <c r="G14" s="274"/>
       <c r="H14" s="275"/>
@@ -5611,11 +5611,11 @@
       <c r="N14" s="278"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="406"/>
-      <c r="B15" s="403"/>
-      <c r="C15" s="406"/>
-      <c r="D15" s="406"/>
-      <c r="E15" s="406"/>
+      <c r="A15" s="413"/>
+      <c r="B15" s="416"/>
+      <c r="C15" s="413"/>
+      <c r="D15" s="413"/>
+      <c r="E15" s="413"/>
       <c r="F15" s="274"/>
       <c r="G15" s="274"/>
       <c r="H15" s="275"/>
@@ -5627,11 +5627,11 @@
       <c r="N15" s="278"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="406"/>
-      <c r="B16" s="403"/>
-      <c r="C16" s="406"/>
-      <c r="D16" s="406"/>
-      <c r="E16" s="406"/>
+      <c r="A16" s="413"/>
+      <c r="B16" s="416"/>
+      <c r="C16" s="413"/>
+      <c r="D16" s="413"/>
+      <c r="E16" s="413"/>
       <c r="F16" s="274"/>
       <c r="G16" s="274"/>
       <c r="H16" s="275"/>
@@ -5643,11 +5643,11 @@
       <c r="N16" s="278"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="408"/>
-      <c r="B17" s="409"/>
-      <c r="C17" s="408"/>
-      <c r="D17" s="408"/>
-      <c r="E17" s="408"/>
+      <c r="A17" s="414"/>
+      <c r="B17" s="417"/>
+      <c r="C17" s="414"/>
+      <c r="D17" s="414"/>
+      <c r="E17" s="414"/>
       <c r="F17" s="274"/>
       <c r="G17" s="274"/>
       <c r="H17" s="275"/>
@@ -5659,11 +5659,11 @@
       <c r="N17" s="278"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="405"/>
-      <c r="B18" s="402"/>
-      <c r="C18" s="405"/>
-      <c r="D18" s="405"/>
-      <c r="E18" s="405"/>
+      <c r="A18" s="418"/>
+      <c r="B18" s="419"/>
+      <c r="C18" s="418"/>
+      <c r="D18" s="418"/>
+      <c r="E18" s="418"/>
       <c r="F18" s="274"/>
       <c r="G18" s="274"/>
       <c r="H18" s="275"/>
@@ -5675,11 +5675,11 @@
       <c r="N18" s="278"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="406"/>
-      <c r="B19" s="403"/>
-      <c r="C19" s="406"/>
-      <c r="D19" s="406"/>
-      <c r="E19" s="406"/>
+      <c r="A19" s="413"/>
+      <c r="B19" s="416"/>
+      <c r="C19" s="413"/>
+      <c r="D19" s="413"/>
+      <c r="E19" s="413"/>
       <c r="F19" s="274"/>
       <c r="G19" s="274"/>
       <c r="H19" s="275"/>
@@ -5691,11 +5691,11 @@
       <c r="N19" s="278"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="408"/>
-      <c r="B20" s="409"/>
-      <c r="C20" s="408"/>
-      <c r="D20" s="408"/>
-      <c r="E20" s="408"/>
+      <c r="A20" s="414"/>
+      <c r="B20" s="417"/>
+      <c r="C20" s="414"/>
+      <c r="D20" s="414"/>
+      <c r="E20" s="414"/>
       <c r="F20" s="274"/>
       <c r="G20" s="274"/>
       <c r="H20" s="275"/>
@@ -5723,11 +5723,11 @@
       <c r="N21" s="278"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="405"/>
-      <c r="B22" s="402"/>
-      <c r="C22" s="405"/>
-      <c r="D22" s="405"/>
-      <c r="E22" s="405"/>
+      <c r="A22" s="418"/>
+      <c r="B22" s="419"/>
+      <c r="C22" s="418"/>
+      <c r="D22" s="418"/>
+      <c r="E22" s="418"/>
       <c r="F22" s="274"/>
       <c r="G22" s="274"/>
       <c r="H22" s="275"/>
@@ -5739,11 +5739,11 @@
       <c r="N22" s="278"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="406"/>
-      <c r="B23" s="403"/>
-      <c r="C23" s="406"/>
-      <c r="D23" s="406"/>
-      <c r="E23" s="406"/>
+      <c r="A23" s="413"/>
+      <c r="B23" s="416"/>
+      <c r="C23" s="413"/>
+      <c r="D23" s="413"/>
+      <c r="E23" s="413"/>
       <c r="F23" s="274"/>
       <c r="G23" s="274"/>
       <c r="H23" s="275"/>
@@ -5755,11 +5755,11 @@
       <c r="N23" s="278"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="408"/>
-      <c r="B24" s="409"/>
-      <c r="C24" s="408"/>
-      <c r="D24" s="408"/>
-      <c r="E24" s="408"/>
+      <c r="A24" s="414"/>
+      <c r="B24" s="417"/>
+      <c r="C24" s="414"/>
+      <c r="D24" s="414"/>
+      <c r="E24" s="414"/>
       <c r="F24" s="274"/>
       <c r="G24" s="274"/>
       <c r="H24" s="275"/>
@@ -5803,11 +5803,11 @@
       <c r="N26" s="278"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="405"/>
-      <c r="B27" s="402"/>
-      <c r="C27" s="405"/>
-      <c r="D27" s="405"/>
-      <c r="E27" s="405"/>
+      <c r="A27" s="418"/>
+      <c r="B27" s="419"/>
+      <c r="C27" s="418"/>
+      <c r="D27" s="418"/>
+      <c r="E27" s="418"/>
       <c r="F27" s="274"/>
       <c r="G27" s="274"/>
       <c r="H27" s="275"/>
@@ -5819,11 +5819,11 @@
       <c r="N27" s="278"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="408"/>
-      <c r="B28" s="409"/>
-      <c r="C28" s="408"/>
-      <c r="D28" s="408"/>
-      <c r="E28" s="408"/>
+      <c r="A28" s="414"/>
+      <c r="B28" s="417"/>
+      <c r="C28" s="414"/>
+      <c r="D28" s="414"/>
+      <c r="E28" s="414"/>
       <c r="F28" s="274"/>
       <c r="G28" s="274"/>
       <c r="H28" s="275"/>
@@ -5835,11 +5835,11 @@
       <c r="N28" s="278"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="405"/>
-      <c r="B29" s="402"/>
-      <c r="C29" s="405"/>
-      <c r="D29" s="405"/>
-      <c r="E29" s="405"/>
+      <c r="A29" s="418"/>
+      <c r="B29" s="419"/>
+      <c r="C29" s="418"/>
+      <c r="D29" s="418"/>
+      <c r="E29" s="418"/>
       <c r="F29" s="274"/>
       <c r="G29" s="274"/>
       <c r="H29" s="275"/>
@@ -5851,11 +5851,11 @@
       <c r="N29" s="278"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="408"/>
-      <c r="B30" s="409"/>
-      <c r="C30" s="408"/>
-      <c r="D30" s="408"/>
-      <c r="E30" s="408"/>
+      <c r="A30" s="414"/>
+      <c r="B30" s="417"/>
+      <c r="C30" s="414"/>
+      <c r="D30" s="414"/>
+      <c r="E30" s="414"/>
       <c r="F30" s="274"/>
       <c r="G30" s="274"/>
       <c r="H30" s="275"/>
@@ -5867,11 +5867,11 @@
       <c r="N30" s="278"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="405"/>
-      <c r="B31" s="402"/>
-      <c r="C31" s="405"/>
-      <c r="D31" s="405"/>
-      <c r="E31" s="405"/>
+      <c r="A31" s="418"/>
+      <c r="B31" s="419"/>
+      <c r="C31" s="418"/>
+      <c r="D31" s="418"/>
+      <c r="E31" s="418"/>
       <c r="F31" s="274"/>
       <c r="G31" s="274"/>
       <c r="H31" s="275"/>
@@ -5883,11 +5883,11 @@
       <c r="N31" s="278"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="406"/>
-      <c r="B32" s="403"/>
-      <c r="C32" s="406"/>
-      <c r="D32" s="406"/>
-      <c r="E32" s="406"/>
+      <c r="A32" s="413"/>
+      <c r="B32" s="416"/>
+      <c r="C32" s="413"/>
+      <c r="D32" s="413"/>
+      <c r="E32" s="413"/>
       <c r="F32" s="274"/>
       <c r="G32" s="274"/>
       <c r="H32" s="275"/>
@@ -5899,11 +5899,11 @@
       <c r="N32" s="278"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="406"/>
-      <c r="B33" s="403"/>
-      <c r="C33" s="406"/>
-      <c r="D33" s="406"/>
-      <c r="E33" s="406"/>
+      <c r="A33" s="413"/>
+      <c r="B33" s="416"/>
+      <c r="C33" s="413"/>
+      <c r="D33" s="413"/>
+      <c r="E33" s="413"/>
       <c r="F33" s="274"/>
       <c r="G33" s="274"/>
       <c r="H33" s="275"/>
@@ -5915,11 +5915,11 @@
       <c r="N33" s="278"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="407"/>
-      <c r="B34" s="404"/>
-      <c r="C34" s="407"/>
-      <c r="D34" s="407"/>
-      <c r="E34" s="407"/>
+      <c r="A34" s="421"/>
+      <c r="B34" s="420"/>
+      <c r="C34" s="421"/>
+      <c r="D34" s="421"/>
+      <c r="E34" s="421"/>
       <c r="F34" s="280"/>
       <c r="G34" s="280"/>
       <c r="H34" s="281"/>
@@ -5931,13 +5931,13 @@
       <c r="N34" s="285"/>
     </row>
     <row r="35" spans="1:14" s="292" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="410" t="s">
+      <c r="A35" s="402" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="410"/>
-      <c r="C35" s="410"/>
-      <c r="D35" s="410"/>
-      <c r="E35" s="410"/>
+      <c r="B35" s="402"/>
+      <c r="C35" s="402"/>
+      <c r="D35" s="402"/>
+      <c r="E35" s="402"/>
       <c r="F35" s="286"/>
       <c r="G35" s="286">
         <f>SUM(G7:G34)</f>
@@ -6025,6 +6025,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="D14:D17"/>
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="A3:K3"/>
@@ -6041,40 +6075,6 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.24" right="0.28000000000000003" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6085,7 +6085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -6114,7 +6114,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
@@ -6147,7 +6147,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="423" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="423"/>
       <c r="C5" s="423"/>
@@ -6517,7 +6517,7 @@
   <dimension ref="A1:AN41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="AI27" sqref="AI27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7046,65 +7046,65 @@
       <c r="C1" s="212"/>
       <c r="D1" s="212"/>
       <c r="E1" s="212"/>
-      <c r="Z1" s="433" t="s">
+      <c r="Z1" s="447" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="434"/>
-      <c r="AB1" s="434"/>
-      <c r="AC1" s="434"/>
-      <c r="AD1" s="434"/>
-      <c r="AE1" s="434"/>
-      <c r="AF1" s="434"/>
-      <c r="AG1" s="434"/>
-      <c r="AH1" s="435"/>
+      <c r="AA1" s="448"/>
+      <c r="AB1" s="448"/>
+      <c r="AC1" s="448"/>
+      <c r="AD1" s="448"/>
+      <c r="AE1" s="448"/>
+      <c r="AF1" s="448"/>
+      <c r="AG1" s="448"/>
+      <c r="AH1" s="449"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="215" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="B2" s="215"/>
       <c r="C2" s="216"/>
       <c r="D2" s="216"/>
       <c r="E2" s="216"/>
-      <c r="Z2" s="427" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA2" s="428"/>
-      <c r="AB2" s="428"/>
-      <c r="AC2" s="428"/>
-      <c r="AD2" s="428"/>
-      <c r="AE2" s="429"/>
-      <c r="AF2" s="430" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG2" s="431"/>
-      <c r="AH2" s="432"/>
+      <c r="Z2" s="441" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA2" s="442"/>
+      <c r="AB2" s="442"/>
+      <c r="AC2" s="442"/>
+      <c r="AD2" s="442"/>
+      <c r="AE2" s="443"/>
+      <c r="AF2" s="444" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG2" s="445"/>
+      <c r="AH2" s="446"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="215" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="79"/>
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
-      <c r="Z3" s="427" t="s">
+      <c r="Z3" s="441" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA3" s="442"/>
+      <c r="AB3" s="442"/>
+      <c r="AC3" s="442"/>
+      <c r="AD3" s="442"/>
+      <c r="AE3" s="443"/>
+      <c r="AF3" s="444" t="s">
         <v>102</v>
       </c>
-      <c r="AA3" s="428"/>
-      <c r="AB3" s="428"/>
-      <c r="AC3" s="428"/>
-      <c r="AD3" s="428"/>
-      <c r="AE3" s="429"/>
-      <c r="AF3" s="430" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG3" s="431"/>
-      <c r="AH3" s="432"/>
+      <c r="AG3" s="445"/>
+      <c r="AH3" s="446"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="215" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="79"/>
       <c r="C4" s="79"/>
@@ -7113,41 +7113,41 @@
       <c r="T4" s="213" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="427" t="s">
+      <c r="Z4" s="441" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA4" s="442"/>
+      <c r="AB4" s="442"/>
+      <c r="AC4" s="442"/>
+      <c r="AD4" s="442"/>
+      <c r="AE4" s="443"/>
+      <c r="AF4" s="444" t="s">
         <v>105</v>
       </c>
-      <c r="AA4" s="428"/>
-      <c r="AB4" s="428"/>
-      <c r="AC4" s="428"/>
-      <c r="AD4" s="428"/>
-      <c r="AE4" s="429"/>
-      <c r="AF4" s="430" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG4" s="431"/>
-      <c r="AH4" s="432"/>
+      <c r="AG4" s="445"/>
+      <c r="AH4" s="446"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="215" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="79"/>
       <c r="C5" s="79"/>
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
-      <c r="Z5" s="437" t="s">
+      <c r="Z5" s="428" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA5" s="428"/>
+      <c r="AB5" s="428"/>
+      <c r="AC5" s="428"/>
+      <c r="AD5" s="428"/>
+      <c r="AE5" s="428"/>
+      <c r="AF5" s="429" t="s">
         <v>108</v>
       </c>
-      <c r="AA5" s="437"/>
-      <c r="AB5" s="437"/>
-      <c r="AC5" s="437"/>
-      <c r="AD5" s="437"/>
-      <c r="AE5" s="437"/>
-      <c r="AF5" s="438" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG5" s="438"/>
-      <c r="AH5" s="438"/>
+      <c r="AG5" s="429"/>
+      <c r="AH5" s="429"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="215"/>
@@ -7155,19 +7155,19 @@
       <c r="C6" s="79"/>
       <c r="D6" s="79"/>
       <c r="E6" s="79"/>
-      <c r="Z6" s="427" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA6" s="428"/>
-      <c r="AB6" s="428"/>
-      <c r="AC6" s="428"/>
-      <c r="AD6" s="428"/>
-      <c r="AE6" s="429"/>
-      <c r="AF6" s="430" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG6" s="431"/>
-      <c r="AH6" s="432"/>
+      <c r="Z6" s="441" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA6" s="442"/>
+      <c r="AB6" s="442"/>
+      <c r="AC6" s="442"/>
+      <c r="AD6" s="442"/>
+      <c r="AE6" s="443"/>
+      <c r="AF6" s="444" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG6" s="445"/>
+      <c r="AH6" s="446"/>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="217"/>
@@ -7177,94 +7177,94 @@
       <c r="E7" s="217"/>
     </row>
     <row r="8" spans="1:40" s="220" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="439" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="439"/>
-      <c r="C8" s="439"/>
-      <c r="D8" s="439"/>
-      <c r="E8" s="439"/>
-      <c r="F8" s="439"/>
-      <c r="G8" s="439"/>
-      <c r="H8" s="439"/>
-      <c r="I8" s="439"/>
-      <c r="J8" s="439"/>
-      <c r="K8" s="439"/>
-      <c r="L8" s="439"/>
-      <c r="M8" s="439"/>
-      <c r="N8" s="439"/>
-      <c r="O8" s="439"/>
-      <c r="P8" s="439"/>
-      <c r="Q8" s="439"/>
-      <c r="R8" s="439"/>
-      <c r="S8" s="439"/>
-      <c r="T8" s="439"/>
-      <c r="U8" s="439"/>
-      <c r="V8" s="439"/>
-      <c r="W8" s="439"/>
-      <c r="X8" s="439"/>
-      <c r="Y8" s="439"/>
-      <c r="Z8" s="439"/>
-      <c r="AA8" s="439"/>
-      <c r="AB8" s="439"/>
-      <c r="AC8" s="439"/>
-      <c r="AD8" s="439"/>
-      <c r="AE8" s="439"/>
-      <c r="AF8" s="439"/>
-      <c r="AG8" s="439"/>
-      <c r="AH8" s="439"/>
-      <c r="AI8" s="439"/>
-      <c r="AJ8" s="439"/>
-      <c r="AK8" s="439"/>
-      <c r="AL8" s="439"/>
-      <c r="AM8" s="439"/>
+      <c r="A8" s="430" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="430"/>
+      <c r="C8" s="430"/>
+      <c r="D8" s="430"/>
+      <c r="E8" s="430"/>
+      <c r="F8" s="430"/>
+      <c r="G8" s="430"/>
+      <c r="H8" s="430"/>
+      <c r="I8" s="430"/>
+      <c r="J8" s="430"/>
+      <c r="K8" s="430"/>
+      <c r="L8" s="430"/>
+      <c r="M8" s="430"/>
+      <c r="N8" s="430"/>
+      <c r="O8" s="430"/>
+      <c r="P8" s="430"/>
+      <c r="Q8" s="430"/>
+      <c r="R8" s="430"/>
+      <c r="S8" s="430"/>
+      <c r="T8" s="430"/>
+      <c r="U8" s="430"/>
+      <c r="V8" s="430"/>
+      <c r="W8" s="430"/>
+      <c r="X8" s="430"/>
+      <c r="Y8" s="430"/>
+      <c r="Z8" s="430"/>
+      <c r="AA8" s="430"/>
+      <c r="AB8" s="430"/>
+      <c r="AC8" s="430"/>
+      <c r="AD8" s="430"/>
+      <c r="AE8" s="430"/>
+      <c r="AF8" s="430"/>
+      <c r="AG8" s="430"/>
+      <c r="AH8" s="430"/>
+      <c r="AI8" s="430"/>
+      <c r="AJ8" s="430"/>
+      <c r="AK8" s="430"/>
+      <c r="AL8" s="430"/>
+      <c r="AM8" s="430"/>
       <c r="AN8" s="219"/>
     </row>
     <row r="10" spans="1:40" s="225" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="440" t="s">
+      <c r="A10" s="431" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="431" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="440" t="s">
+      <c r="C10" s="431" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="440" t="s">
+      <c r="D10" s="434" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="443" t="s">
+      <c r="E10" s="435"/>
+      <c r="F10" s="435"/>
+      <c r="G10" s="435"/>
+      <c r="H10" s="435"/>
+      <c r="I10" s="435"/>
+      <c r="J10" s="435"/>
+      <c r="K10" s="435"/>
+      <c r="L10" s="435"/>
+      <c r="M10" s="435"/>
+      <c r="N10" s="435"/>
+      <c r="O10" s="435"/>
+      <c r="P10" s="435"/>
+      <c r="Q10" s="435"/>
+      <c r="R10" s="435"/>
+      <c r="S10" s="435"/>
+      <c r="T10" s="435"/>
+      <c r="U10" s="435"/>
+      <c r="V10" s="435"/>
+      <c r="W10" s="435"/>
+      <c r="X10" s="435"/>
+      <c r="Y10" s="435"/>
+      <c r="Z10" s="435"/>
+      <c r="AA10" s="435"/>
+      <c r="AB10" s="435"/>
+      <c r="AC10" s="435"/>
+      <c r="AD10" s="435"/>
+      <c r="AE10" s="435"/>
+      <c r="AF10" s="435"/>
+      <c r="AG10" s="435"/>
+      <c r="AH10" s="435"/>
+      <c r="AI10" s="436" t="s">
         <v>113</v>
-      </c>
-      <c r="E10" s="444"/>
-      <c r="F10" s="444"/>
-      <c r="G10" s="444"/>
-      <c r="H10" s="444"/>
-      <c r="I10" s="444"/>
-      <c r="J10" s="444"/>
-      <c r="K10" s="444"/>
-      <c r="L10" s="444"/>
-      <c r="M10" s="444"/>
-      <c r="N10" s="444"/>
-      <c r="O10" s="444"/>
-      <c r="P10" s="444"/>
-      <c r="Q10" s="444"/>
-      <c r="R10" s="444"/>
-      <c r="S10" s="444"/>
-      <c r="T10" s="444"/>
-      <c r="U10" s="444"/>
-      <c r="V10" s="444"/>
-      <c r="W10" s="444"/>
-      <c r="X10" s="444"/>
-      <c r="Y10" s="444"/>
-      <c r="Z10" s="444"/>
-      <c r="AA10" s="444"/>
-      <c r="AB10" s="444"/>
-      <c r="AC10" s="444"/>
-      <c r="AD10" s="444"/>
-      <c r="AE10" s="444"/>
-      <c r="AF10" s="444"/>
-      <c r="AG10" s="444"/>
-      <c r="AH10" s="444"/>
-      <c r="AI10" s="445" t="s">
-        <v>114</v>
       </c>
       <c r="AJ10" s="221"/>
       <c r="AK10" s="222"/>
@@ -7273,9 +7273,9 @@
       <c r="AN10" s="224"/>
     </row>
     <row r="11" spans="1:40" s="225" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="441"/>
-      <c r="B11" s="441"/>
-      <c r="C11" s="441"/>
+      <c r="A11" s="432"/>
+      <c r="B11" s="432"/>
+      <c r="C11" s="432"/>
       <c r="D11" s="226">
         <v>1</v>
       </c>
@@ -7369,7 +7369,7 @@
       <c r="AH11" s="226">
         <v>31</v>
       </c>
-      <c r="AI11" s="445"/>
+      <c r="AI11" s="436"/>
       <c r="AJ11" s="227"/>
       <c r="AK11" s="223"/>
       <c r="AL11" s="223"/>
@@ -7377,103 +7377,103 @@
       <c r="AN11" s="224"/>
     </row>
     <row r="12" spans="1:40" s="231" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="442"/>
-      <c r="B12" s="442"/>
-      <c r="C12" s="442"/>
+      <c r="A12" s="433"/>
+      <c r="B12" s="433"/>
+      <c r="C12" s="433"/>
       <c r="D12" s="226" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="228" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="228" t="s">
+      <c r="F12" s="229" t="s">
         <v>118</v>
       </c>
-      <c r="F12" s="229" t="s">
+      <c r="G12" s="228" t="s">
         <v>119</v>
       </c>
-      <c r="G12" s="228" t="s">
+      <c r="H12" s="228" t="s">
         <v>120</v>
       </c>
-      <c r="H12" s="228" t="s">
-        <v>121</v>
-      </c>
       <c r="I12" s="226" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" s="228" t="s">
         <v>115</v>
       </c>
-      <c r="J12" s="228" t="s">
+      <c r="K12" s="226" t="s">
         <v>116</v>
       </c>
-      <c r="K12" s="226" t="s">
+      <c r="L12" s="228" t="s">
         <v>117</v>
       </c>
-      <c r="L12" s="228" t="s">
+      <c r="M12" s="229" t="s">
         <v>118</v>
       </c>
-      <c r="M12" s="229" t="s">
+      <c r="N12" s="228" t="s">
         <v>119</v>
       </c>
-      <c r="N12" s="228" t="s">
+      <c r="O12" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="O12" s="226" t="s">
-        <v>121</v>
-      </c>
       <c r="P12" s="228" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q12" s="228" t="s">
         <v>115</v>
       </c>
-      <c r="Q12" s="228" t="s">
+      <c r="R12" s="228" t="s">
         <v>116</v>
       </c>
-      <c r="R12" s="228" t="s">
+      <c r="S12" s="228" t="s">
         <v>117</v>
       </c>
-      <c r="S12" s="228" t="s">
+      <c r="T12" s="229" t="s">
         <v>118</v>
       </c>
-      <c r="T12" s="229" t="s">
+      <c r="U12" s="228" t="s">
         <v>119</v>
       </c>
-      <c r="U12" s="228" t="s">
+      <c r="V12" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="V12" s="226" t="s">
-        <v>121</v>
-      </c>
       <c r="W12" s="228" t="s">
+        <v>114</v>
+      </c>
+      <c r="X12" s="228" t="s">
         <v>115</v>
       </c>
-      <c r="X12" s="228" t="s">
+      <c r="Y12" s="228" t="s">
         <v>116</v>
       </c>
-      <c r="Y12" s="228" t="s">
+      <c r="Z12" s="228" t="s">
         <v>117</v>
       </c>
-      <c r="Z12" s="228" t="s">
+      <c r="AA12" s="229" t="s">
         <v>118</v>
       </c>
-      <c r="AA12" s="229" t="s">
+      <c r="AB12" s="228" t="s">
         <v>119</v>
       </c>
-      <c r="AB12" s="228" t="s">
+      <c r="AC12" s="226" t="s">
         <v>120</v>
       </c>
-      <c r="AC12" s="226" t="s">
-        <v>121</v>
-      </c>
       <c r="AD12" s="228" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE12" s="228" t="s">
         <v>115</v>
       </c>
-      <c r="AE12" s="228" t="s">
+      <c r="AF12" s="228" t="s">
         <v>116</v>
       </c>
-      <c r="AF12" s="228" t="s">
+      <c r="AG12" s="228" t="s">
         <v>117</v>
       </c>
-      <c r="AG12" s="228" t="s">
+      <c r="AH12" s="228" t="s">
         <v>118</v>
       </c>
-      <c r="AH12" s="228" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI12" s="445"/>
+      <c r="AI12" s="436"/>
       <c r="AJ12" s="230"/>
       <c r="AN12" s="232"/>
     </row>
@@ -7488,89 +7488,89 @@
         <v>13</v>
       </c>
       <c r="D13" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" s="234"/>
       <c r="G13" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H13" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I13" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J13" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K13" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L13" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M13" s="234"/>
       <c r="N13" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O13" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P13" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q13" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R13" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S13" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T13" s="234"/>
       <c r="U13" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V13" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W13" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X13" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y13" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z13" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AA13" s="234"/>
       <c r="AB13" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC13" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AD13" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE13" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF13" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG13" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AH13" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AI13" s="235">
         <f>COUNTIF(D13:AH13,"x")+ COUNTIF(D13:AH13,"x/2")/2+COUNTIF(D13:AH13,"CT")+COUNTIF(D13:AH13,"TT")+COUNTIF(D13:AH13,"P")</f>
@@ -7590,93 +7590,93 @@
         <v>84</v>
       </c>
       <c r="D14" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F14" s="234"/>
       <c r="G14" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H14" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I14" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J14" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K14" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L14" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M14" s="234"/>
       <c r="N14" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O14" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P14" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R14" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S14" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T14" s="234"/>
       <c r="U14" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V14" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W14" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X14" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y14" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z14" s="228" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AA14" s="234"/>
       <c r="AB14" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC14" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AD14" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE14" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF14" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG14" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AH14" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AI14" s="235">
         <f>COUNTIF(D14:AH14,"x")+ COUNTIF(D14:AH14,"x/2")/2+COUNTIF(D14:AH14,"CT")+COUNTIF(D14:AH14,"TT")+COUNTIF(D14:AH14,"P")</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ14" s="230"/>
       <c r="AN14" s="232"/>
@@ -7692,89 +7692,89 @@
         <v>84</v>
       </c>
       <c r="D15" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F15" s="234"/>
       <c r="G15" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H15" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I15" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J15" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K15" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L15" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M15" s="234"/>
       <c r="N15" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O15" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P15" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q15" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R15" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S15" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T15" s="234"/>
       <c r="U15" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V15" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W15" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X15" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y15" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z15" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AA15" s="234"/>
       <c r="AB15" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC15" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AD15" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE15" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF15" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG15" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AH15" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AI15" s="235">
         <f>COUNTIF(D15:AH15,"x")+ COUNTIF(D15:AH15,"x/2")/2+COUNTIF(D15:AH15,"CT")+COUNTIF(D15:AH15,"TT")+COUNTIF(D15:AH15,"P")</f>
@@ -7788,97 +7788,97 @@
         <v>4</v>
       </c>
       <c r="B16" s="233" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="237" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="237" t="s">
-        <v>124</v>
-      </c>
       <c r="D16" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E16" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F16" s="234" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G16" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H16" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I16" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J16" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K16" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L16" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M16" s="234"/>
       <c r="N16" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O16" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P16" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R16" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S16" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T16" s="234"/>
       <c r="U16" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V16" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W16" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X16" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y16" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z16" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AA16" s="234"/>
       <c r="AB16" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC16" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AD16" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE16" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF16" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG16" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AH16" s="228" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AI16" s="235">
         <f>COUNTIF(D16:AH16,"x")+ COUNTIF(D16:AH16,"x/2")/2+COUNTIF(D16:AH16,"CT")+COUNTIF(D16:AH16,"TT")+COUNTIF(D16:AH16,"P")</f>
@@ -7888,10 +7888,10 @@
       <c r="AN16" s="232"/>
     </row>
     <row r="17" spans="1:40" s="231" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="446" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="447"/>
+      <c r="A17" s="437" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="438"/>
       <c r="C17" s="238"/>
       <c r="D17" s="238"/>
       <c r="E17" s="239"/>
@@ -7926,7 +7926,7 @@
       <c r="AH17" s="239"/>
       <c r="AI17" s="240">
         <f>SUM(AI13:AI15)</f>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AJ17" s="241"/>
       <c r="AK17" s="242"/>
@@ -7934,47 +7934,47 @@
       <c r="AN17" s="232"/>
     </row>
     <row r="19" spans="1:40" s="248" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="448"/>
-      <c r="B19" s="448"/>
-      <c r="C19" s="448"/>
-      <c r="D19" s="448"/>
-      <c r="E19" s="448"/>
-      <c r="F19" s="448"/>
-      <c r="G19" s="448"/>
+      <c r="A19" s="439"/>
+      <c r="B19" s="439"/>
+      <c r="C19" s="439"/>
+      <c r="D19" s="439"/>
+      <c r="E19" s="439"/>
+      <c r="F19" s="439"/>
+      <c r="G19" s="439"/>
       <c r="H19" s="243"/>
-      <c r="I19" s="449"/>
-      <c r="J19" s="449"/>
-      <c r="K19" s="449"/>
-      <c r="L19" s="449"/>
-      <c r="M19" s="449"/>
+      <c r="I19" s="440"/>
+      <c r="J19" s="440"/>
+      <c r="K19" s="440"/>
+      <c r="L19" s="440"/>
+      <c r="M19" s="440"/>
       <c r="N19" s="244"/>
-      <c r="O19" s="449"/>
-      <c r="P19" s="449"/>
-      <c r="Q19" s="449"/>
-      <c r="R19" s="449"/>
-      <c r="S19" s="449"/>
-      <c r="T19" s="449"/>
-      <c r="U19" s="449"/>
-      <c r="V19" s="449"/>
-      <c r="W19" s="449"/>
-      <c r="X19" s="449"/>
-      <c r="Y19" s="449"/>
+      <c r="O19" s="440"/>
+      <c r="P19" s="440"/>
+      <c r="Q19" s="440"/>
+      <c r="R19" s="440"/>
+      <c r="S19" s="440"/>
+      <c r="T19" s="440"/>
+      <c r="U19" s="440"/>
+      <c r="V19" s="440"/>
+      <c r="W19" s="440"/>
+      <c r="X19" s="440"/>
+      <c r="Y19" s="440"/>
       <c r="Z19" s="245"/>
       <c r="AA19" s="253" t="s">
         <v>13</v>
       </c>
       <c r="AB19" s="246"/>
-      <c r="AC19" s="449"/>
-      <c r="AD19" s="449"/>
-      <c r="AE19" s="449"/>
-      <c r="AF19" s="449"/>
-      <c r="AG19" s="449"/>
-      <c r="AH19" s="449"/>
-      <c r="AI19" s="449"/>
-      <c r="AJ19" s="449"/>
-      <c r="AK19" s="449"/>
-      <c r="AL19" s="449"/>
-      <c r="AM19" s="449"/>
+      <c r="AC19" s="440"/>
+      <c r="AD19" s="440"/>
+      <c r="AE19" s="440"/>
+      <c r="AF19" s="440"/>
+      <c r="AG19" s="440"/>
+      <c r="AH19" s="440"/>
+      <c r="AI19" s="440"/>
+      <c r="AJ19" s="440"/>
+      <c r="AK19" s="440"/>
+      <c r="AL19" s="440"/>
+      <c r="AM19" s="440"/>
       <c r="AN19" s="247"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
@@ -8013,131 +8013,131 @@
       <c r="AN34" s="252"/>
     </row>
     <row r="35" spans="3:40" s="251" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="436"/>
-      <c r="H35" s="436"/>
-      <c r="I35" s="436"/>
-      <c r="J35" s="436"/>
-      <c r="K35" s="436"/>
-      <c r="L35" s="436"/>
-      <c r="M35" s="436"/>
-      <c r="N35" s="436"/>
-      <c r="O35" s="436"/>
-      <c r="P35" s="436"/>
-      <c r="Q35" s="436"/>
-      <c r="R35" s="436"/>
-      <c r="S35" s="436"/>
-      <c r="T35" s="436"/>
-      <c r="U35" s="436"/>
-      <c r="V35" s="436"/>
-      <c r="W35" s="436"/>
-      <c r="X35" s="436"/>
+      <c r="G35" s="427"/>
+      <c r="H35" s="427"/>
+      <c r="I35" s="427"/>
+      <c r="J35" s="427"/>
+      <c r="K35" s="427"/>
+      <c r="L35" s="427"/>
+      <c r="M35" s="427"/>
+      <c r="N35" s="427"/>
+      <c r="O35" s="427"/>
+      <c r="P35" s="427"/>
+      <c r="Q35" s="427"/>
+      <c r="R35" s="427"/>
+      <c r="S35" s="427"/>
+      <c r="T35" s="427"/>
+      <c r="U35" s="427"/>
+      <c r="V35" s="427"/>
+      <c r="W35" s="427"/>
+      <c r="X35" s="427"/>
       <c r="AN35" s="252"/>
     </row>
     <row r="36" spans="3:40" s="251" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="436"/>
-      <c r="H36" s="436"/>
-      <c r="I36" s="436"/>
-      <c r="J36" s="436"/>
-      <c r="K36" s="436"/>
-      <c r="L36" s="436"/>
-      <c r="M36" s="436"/>
-      <c r="N36" s="436"/>
-      <c r="O36" s="436"/>
-      <c r="P36" s="436"/>
-      <c r="Q36" s="436"/>
-      <c r="R36" s="436"/>
-      <c r="S36" s="436"/>
-      <c r="T36" s="436"/>
-      <c r="U36" s="436"/>
-      <c r="V36" s="436"/>
-      <c r="W36" s="436"/>
-      <c r="X36" s="436"/>
+      <c r="G36" s="427"/>
+      <c r="H36" s="427"/>
+      <c r="I36" s="427"/>
+      <c r="J36" s="427"/>
+      <c r="K36" s="427"/>
+      <c r="L36" s="427"/>
+      <c r="M36" s="427"/>
+      <c r="N36" s="427"/>
+      <c r="O36" s="427"/>
+      <c r="P36" s="427"/>
+      <c r="Q36" s="427"/>
+      <c r="R36" s="427"/>
+      <c r="S36" s="427"/>
+      <c r="T36" s="427"/>
+      <c r="U36" s="427"/>
+      <c r="V36" s="427"/>
+      <c r="W36" s="427"/>
+      <c r="X36" s="427"/>
       <c r="AN36" s="252"/>
     </row>
     <row r="37" spans="3:40" s="251" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="436"/>
-      <c r="H37" s="436"/>
-      <c r="I37" s="436"/>
-      <c r="J37" s="436"/>
-      <c r="K37" s="436"/>
-      <c r="L37" s="436"/>
-      <c r="M37" s="436"/>
-      <c r="N37" s="436"/>
-      <c r="O37" s="436"/>
-      <c r="P37" s="436"/>
-      <c r="Q37" s="436"/>
-      <c r="R37" s="436"/>
-      <c r="S37" s="436"/>
-      <c r="T37" s="436"/>
-      <c r="U37" s="436"/>
-      <c r="V37" s="436"/>
-      <c r="W37" s="436"/>
-      <c r="X37" s="436"/>
+      <c r="G37" s="427"/>
+      <c r="H37" s="427"/>
+      <c r="I37" s="427"/>
+      <c r="J37" s="427"/>
+      <c r="K37" s="427"/>
+      <c r="L37" s="427"/>
+      <c r="M37" s="427"/>
+      <c r="N37" s="427"/>
+      <c r="O37" s="427"/>
+      <c r="P37" s="427"/>
+      <c r="Q37" s="427"/>
+      <c r="R37" s="427"/>
+      <c r="S37" s="427"/>
+      <c r="T37" s="427"/>
+      <c r="U37" s="427"/>
+      <c r="V37" s="427"/>
+      <c r="W37" s="427"/>
+      <c r="X37" s="427"/>
       <c r="AN37" s="252"/>
     </row>
     <row r="38" spans="3:40" s="251" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="436"/>
-      <c r="H38" s="436"/>
-      <c r="I38" s="436"/>
-      <c r="J38" s="436"/>
-      <c r="K38" s="436"/>
-      <c r="L38" s="436"/>
-      <c r="M38" s="436"/>
-      <c r="N38" s="436"/>
-      <c r="O38" s="436"/>
-      <c r="P38" s="436"/>
-      <c r="Q38" s="436"/>
-      <c r="R38" s="436"/>
-      <c r="S38" s="436"/>
-      <c r="T38" s="436"/>
-      <c r="U38" s="436"/>
-      <c r="V38" s="436"/>
-      <c r="W38" s="436"/>
-      <c r="X38" s="436"/>
+      <c r="G38" s="427"/>
+      <c r="H38" s="427"/>
+      <c r="I38" s="427"/>
+      <c r="J38" s="427"/>
+      <c r="K38" s="427"/>
+      <c r="L38" s="427"/>
+      <c r="M38" s="427"/>
+      <c r="N38" s="427"/>
+      <c r="O38" s="427"/>
+      <c r="P38" s="427"/>
+      <c r="Q38" s="427"/>
+      <c r="R38" s="427"/>
+      <c r="S38" s="427"/>
+      <c r="T38" s="427"/>
+      <c r="U38" s="427"/>
+      <c r="V38" s="427"/>
+      <c r="W38" s="427"/>
+      <c r="X38" s="427"/>
       <c r="AN38" s="252"/>
     </row>
     <row r="39" spans="3:40" s="251" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="436"/>
-      <c r="H39" s="436"/>
-      <c r="I39" s="436"/>
-      <c r="J39" s="436"/>
-      <c r="K39" s="436"/>
-      <c r="L39" s="436"/>
-      <c r="M39" s="436"/>
-      <c r="N39" s="436"/>
-      <c r="O39" s="436"/>
-      <c r="P39" s="436"/>
-      <c r="Q39" s="436"/>
-      <c r="R39" s="436"/>
-      <c r="S39" s="436"/>
-      <c r="T39" s="436"/>
-      <c r="U39" s="436"/>
-      <c r="V39" s="436"/>
-      <c r="W39" s="436"/>
-      <c r="X39" s="436"/>
+      <c r="G39" s="427"/>
+      <c r="H39" s="427"/>
+      <c r="I39" s="427"/>
+      <c r="J39" s="427"/>
+      <c r="K39" s="427"/>
+      <c r="L39" s="427"/>
+      <c r="M39" s="427"/>
+      <c r="N39" s="427"/>
+      <c r="O39" s="427"/>
+      <c r="P39" s="427"/>
+      <c r="Q39" s="427"/>
+      <c r="R39" s="427"/>
+      <c r="S39" s="427"/>
+      <c r="T39" s="427"/>
+      <c r="U39" s="427"/>
+      <c r="V39" s="427"/>
+      <c r="W39" s="427"/>
+      <c r="X39" s="427"/>
       <c r="AN39" s="252"/>
     </row>
     <row r="40" spans="3:40" x14ac:dyDescent="0.25">
       <c r="C40" s="213"/>
       <c r="D40" s="213"/>
-      <c r="G40" s="436"/>
-      <c r="H40" s="436"/>
-      <c r="I40" s="436"/>
-      <c r="J40" s="436"/>
-      <c r="K40" s="436"/>
-      <c r="L40" s="436"/>
-      <c r="M40" s="436"/>
-      <c r="N40" s="436"/>
-      <c r="O40" s="436"/>
-      <c r="P40" s="436"/>
-      <c r="Q40" s="436"/>
-      <c r="R40" s="436"/>
-      <c r="S40" s="436"/>
-      <c r="T40" s="436"/>
-      <c r="U40" s="436"/>
-      <c r="V40" s="436"/>
-      <c r="W40" s="436"/>
-      <c r="X40" s="436"/>
+      <c r="G40" s="427"/>
+      <c r="H40" s="427"/>
+      <c r="I40" s="427"/>
+      <c r="J40" s="427"/>
+      <c r="K40" s="427"/>
+      <c r="L40" s="427"/>
+      <c r="M40" s="427"/>
+      <c r="N40" s="427"/>
+      <c r="O40" s="427"/>
+      <c r="P40" s="427"/>
+      <c r="Q40" s="427"/>
+      <c r="R40" s="427"/>
+      <c r="S40" s="427"/>
+      <c r="T40" s="427"/>
+      <c r="U40" s="427"/>
+      <c r="V40" s="427"/>
+      <c r="W40" s="427"/>
+      <c r="X40" s="427"/>
       <c r="AN40" s="213"/>
     </row>
     <row r="41" spans="3:40" x14ac:dyDescent="0.25">
@@ -8147,6 +8147,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="Z1:AH1"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="Z3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
     <mergeCell ref="G35:X40"/>
     <mergeCell ref="Z5:AE5"/>
     <mergeCell ref="AF5:AH5"/>
@@ -8163,13 +8170,6 @@
     <mergeCell ref="AC19:AM19"/>
     <mergeCell ref="Z6:AE6"/>
     <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="Z1:AH1"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="Z3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -8181,7 +8181,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -9038,7 +9038,7 @@
     </row>
     <row r="2" spans="1:14" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="460" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="460"/>
       <c r="C2" s="460"/>
@@ -9081,7 +9081,7 @@
     </row>
     <row r="5" spans="1:14" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="463" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="463"/>
       <c r="C5" s="463"/>
@@ -9122,7 +9122,7 @@
         <v>62</v>
       </c>
       <c r="G7" s="146" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H7" s="146" t="s">
         <v>96</v>
@@ -9176,7 +9176,7 @@
       <c r="E9" s="148"/>
       <c r="F9" s="152">
         <f>SUM(F10:F12)</f>
-        <v>28038461.53846154</v>
+        <v>27807692.307692308</v>
       </c>
       <c r="G9" s="152">
         <f>SUM(G10:G12)</f>
@@ -9192,7 +9192,7 @@
       </c>
       <c r="J9" s="152">
         <f>SUM(J10:J12)</f>
-        <v>240888747.53846151</v>
+        <v>240657978.30769229</v>
       </c>
       <c r="K9" s="147"/>
       <c r="L9" s="146"/>
@@ -9284,11 +9284,11 @@
       </c>
       <c r="E12" s="90">
         <f>'Bảng chấm công'!AI14</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="52">
         <f>D12/26*E12</f>
-        <v>6230769.230769231</v>
+        <v>6000000</v>
       </c>
       <c r="G12" s="53"/>
       <c r="H12" s="53"/>
@@ -9297,7 +9297,7 @@
       </c>
       <c r="J12" s="53">
         <f>F12+G12-H12+I12</f>
-        <v>12692307.230769232</v>
+        <v>12461538</v>
       </c>
       <c r="K12" s="53"/>
       <c r="L12" s="50"/>
@@ -9327,11 +9327,11 @@
       </c>
       <c r="I13" s="152">
         <f>SUM(I14:I14)</f>
-        <v>0</v>
+        <v>5823077</v>
       </c>
       <c r="J13" s="152">
         <f>SUM(J14:J14)</f>
-        <v>3769230.7692307695</v>
+        <v>9592307.7692307699</v>
       </c>
       <c r="K13" s="153"/>
       <c r="L13" s="147"/>
@@ -9341,10 +9341,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="55" t="s">
         <v>123</v>
-      </c>
-      <c r="C14" s="55" t="s">
-        <v>124</v>
       </c>
       <c r="D14" s="56">
         <v>3500000</v>
@@ -9359,10 +9359,12 @@
       </c>
       <c r="G14" s="57"/>
       <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
+      <c r="I14" s="57">
+        <v>5823077</v>
+      </c>
       <c r="J14" s="57">
         <f>F14+G14-H14+I14</f>
-        <v>3769230.7692307695</v>
+        <v>9592307.7692307699</v>
       </c>
       <c r="K14" s="57"/>
       <c r="L14" s="54"/>
@@ -9377,7 +9379,7 @@
       <c r="E15" s="87"/>
       <c r="F15" s="86">
         <f>F13+F9</f>
-        <v>31807692.307692308</v>
+        <v>31576923.076923076</v>
       </c>
       <c r="G15" s="86">
         <f>G13+G9</f>
@@ -9389,11 +9391,11 @@
       </c>
       <c r="I15" s="86">
         <f>I13+I9</f>
-        <v>212850286</v>
+        <v>218673363</v>
       </c>
       <c r="J15" s="86">
         <f>J13+J9</f>
-        <v>244657978.30769229</v>
+        <v>250250286.07692307</v>
       </c>
       <c r="K15" s="85"/>
       <c r="L15" s="85"/>
